--- a/excel/learn/220-母线&线路-第一套合并单元&第一套合并单元/kb2.xlsx
+++ b/excel/learn/220-母线&线路-第一套合并单元&第一套合并单元/kb2.xlsx
@@ -467,58 +467,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9850633614061927</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9965019559734518</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9803676027560678</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9949497629077654</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.978772459941481</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9717236950096224</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9675343237345234</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9668972412922153</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9984087009271647</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9764810636057969</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9943030773760457</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9712584816771612</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9927959247179284</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9696781173143408</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9680563357217046</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9629643627968493</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9623748319958916</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -528,58 +528,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9977395410632584</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.989342547916129</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9948496722246426</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9852462322614467</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9938122170819709</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9842340548941098</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9704344564581358</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9670066110158714</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9670276360174925</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9993316959698257</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9841798843321055</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9958078588081338</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9795140760952913</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>0.994825348645225</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9785248195107424</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9708111147820491</v>
+        <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9664348641393978</v>
+        <v>9</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9665242584536519</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -589,58 +589,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9850633614061927</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9823358364684279</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9958634499779145</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9804580254167351</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9940165593753756</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9645987380265941</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9613067369845537</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9602776605178922</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9897644801563683</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>0.998143169547534</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9863837273421028</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9933958479818202</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9845699320345151</v>
+        <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9915895726400116</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.968937037340118</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9646573757540109</v>
+        <v>9</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9637197575364753</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -650,58 +650,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.975380527280081</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973463848093376</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9733325736006678</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9938898185832176</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9720247094387893</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9926866208827926</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9561328931661218</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9536907721677492</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9533804065712466</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9835047727213195</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9992170930996888</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9807797226416793</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9951078812196866</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9795461619307995</v>
+        <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9939538655856857</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9648316479016068</v>
+        <v>7</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9613593558335237</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9611623951595962</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -711,58 +711,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9965019559734518</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9823358364684279</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9852462365126921</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9977077868740141</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9828511871545452</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9675409972231029</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9722332285881649</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9706670435683331</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9955482063139818</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9744629567262175</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9984351927347174</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9767885710567643</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9961901758272789</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9744162836948351</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9646894106228686</v>
+        <v>9</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9684573903529367</v>
+        <v>7</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9669451531978366</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -772,58 +772,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9936640186584204</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.985990468640883</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9977764246316257</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9895081048110725</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9959943900211266</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9876908120966422</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.965681652307948</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9711432066618404</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9702285243591634</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9958677947811839</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9815134763124808</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9993433394915558</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9844042632726155</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>0.997618295616001</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9826178059481258</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9668421291488222</v>
+        <v>9</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9713345329089164</v>
+        <v>7</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9704944152474134</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -833,58 +833,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9803676027560678</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9958634499779145</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9852462365126921</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9825682755748374</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9972871333858834</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9591105887943229</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9654752166146591</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9634400167159348</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9857018590733364</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9947209213295075</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9899245621493931</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9981850243311124</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>0.987312728203165</v>
+        <v>8</v>
       </c>
       <c r="P8" t="n">
-        <v>0.995521187229272</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9642611598254359</v>
+        <v>9</v>
       </c>
       <c r="R8" t="n">
-        <v>0.969616352128933</v>
+        <v>7</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9676790859758202</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -894,58 +894,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9701997488289713</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9926390371477901</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9757086954923329</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9974033381591025</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9736005255456522</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9953336004357674</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9501643469630733</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9573163454377788</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9559988100303844</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9789148791679035</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9951822349891238</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>0.983744697481991</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9992333871164532</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9817127830017922</v>
+        <v>8</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9972210826197302</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.959622544628974</v>
+        <v>9</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9657237803318729</v>
+        <v>7</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9645258023528782</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -955,58 +955,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9949497629077654</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9804580254167351</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9977077868740141</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9825682755748374</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9851604255322013</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9642944043341852</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9680655049285908</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9723144840905529</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.993937634506914</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>0.972534811985443</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9960860843708852</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9740675459056267</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>0.99842537627029</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9766479454764825</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9613728200345468</v>
+        <v>9</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9642253543969203</v>
+        <v>9</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9685171605968855</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1016,58 +1016,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9915829482148729</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9836076984268174</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9949544850175857</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9863245742613336</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9977631826577572</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9895013482866043</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9619224321922424</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.966461634254798</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9713694260069338</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9937369614838046</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9790932237600296</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9964733740398254</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9811907223876211</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9993389455637438</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9843637998860408</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9630247185052936</v>
+        <v>9</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9666008264902071</v>
+        <v>9</v>
       </c>
       <c r="S11" t="n">
-        <v>0.971572078018905</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1077,58 +1077,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.978772459941481</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9940165593753756</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9828511871545452</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9972871333858834</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9851604255322013</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9556943670593292</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9610632096682712</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9653543506051405</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9840652471822282</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9928418302893379</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9874894070681892</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9954474699814673</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9898647186311031</v>
+        <v>6</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9981719049153643</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9607965905884017</v>
+        <v>9</v>
       </c>
       <c r="R12" t="n">
-        <v>0.965161743865224</v>
+        <v>9</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9695388800349789</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1138,58 +1138,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9679634982441006</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9901627772810699</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9726763888634711</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9940658404506291</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9755267409035285</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9973905764739002</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9461357078318435</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9522965374056256</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9572680862656112</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9766437575132557</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9926852994139542</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9806792239559229</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9958829879191208</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9836057651482755</v>
+        <v>6</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9992279294906349</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9555549802624548</v>
+        <v>9</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9606712781561467</v>
+        <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9657505225693734</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1199,58 +1199,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9463629127771102</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9428467673123029</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>0.948219457802262</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9439186675000257</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9474199202970962</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9431770597557776</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9425087730056512</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9448617240865681</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9452487285288261</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9427490649296212</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9323768988488501</v>
+        <v>9</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9440489530123568</v>
+        <v>9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9329298064463318</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>0.943285737375535</v>
+        <v>9</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9321891097384899</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9363418843204717</v>
+        <v>9</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9378368814087855</v>
+        <v>9</v>
       </c>
       <c r="S14" t="n">
-        <v>0.938254385415809</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1260,58 +1260,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9420439881097219</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9535115497435278</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9454237533715669</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9560971590274606</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9444868580427171</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9552585293921094</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9402930990362369</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9445566894503828</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9447784295476515</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9459981338342995</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9511673486552515</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9487578517596591</v>
+        <v>11</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9531316335155394</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9478808273831688</v>
+        <v>11</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9523234636120234</v>
+        <v>7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9437384325488719</v>
+        <v>10</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9470341799622138</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>0.947339076100522</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1321,58 +1321,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9717236950096224</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9645987380265941</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9675409972231029</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9591105887943229</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9642944043341852</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9556943670593292</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9943593587525379</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.991828462647839</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.971000957209163</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9571038811942435</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9662206814822482</v>
+        <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9510964802805766</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9630203237659071</v>
+        <v>9</v>
       </c>
       <c r="P16" t="n">
-        <v>0.947710645284901</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.997432010137959</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9908513636236949</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9883792641378252</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1382,58 +1382,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9667586850023826</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9679690391938611</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9633549922530087</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9632512646895031</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9607643433814329</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9605776306082503</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9963491860517388</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9916833418325294</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9899883886939248</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9700805152133297</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9648332044205421</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9660470184517487</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9595431172605733</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9635150836753688</v>
+        <v>9</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9569101807461593</v>
+        <v>9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.998922536779812</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9932604133326337</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9916505869933587</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1443,58 +1443,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9675343237345234</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9613067369845537</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9722332285881649</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9654752166146591</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9680655049285908</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9610632096682712</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9943593587525379</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9963101452994005</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9676114029367695</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9547009094454505</v>
+        <v>9</v>
       </c>
       <c r="M18" t="n">
-        <v>0.971708241551886</v>
+        <v>7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9582765584689588</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9675894733314134</v>
+        <v>9</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9539049033554305</v>
+        <v>9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9928149661145473</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>0.9974885657781454</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9938655029231919</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1504,58 +1504,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.961724985057902</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9637450665604135</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9671932511501935</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>0.968675170880912</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9636776008130232</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.965001103663627</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9898239487760099</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9964276073064423</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9935672626535414</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9658013700446513</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9614557023972727</v>
+        <v>9</v>
       </c>
       <c r="M19" t="n">
-        <v>0.970636263769732</v>
+        <v>7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9657410338055349</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9671818629995276</v>
+        <v>9</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9621174796790148</v>
+        <v>9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9933648886336965</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9989467522240832</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9961791744704009</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1565,58 +1565,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9668972412922153</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9602776605178922</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9706670435683331</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9634400167159348</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9723144840905529</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9653543506051405</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>0.991828462647839</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9963101452994005</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9669042816006562</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9536029346163882</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9700730365255633</v>
+        <v>9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.956180782183604</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9717693635183999</v>
+        <v>7</v>
       </c>
       <c r="P20" t="n">
-        <v>0.958091717472409</v>
+        <v>7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9901979182219701</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>0.9937181688791353</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9974608268424521</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1626,58 +1626,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9602396541628786</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>0.961911442425383</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9647796456460414</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9658367736347211</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9670776191099457</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9684873987420369</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9864304797987753</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9918764154291716</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9963924751411591</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9642643915932927</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9595787065129484</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9681723962584088</v>
+        <v>9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9628678407192151</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9705315652399704</v>
+        <v>7</v>
       </c>
       <c r="P21" t="n">
-        <v>0.965525301594589</v>
+        <v>7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.9899100455518091</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>0.9943403587302102</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9989352786534643</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1687,58 +1687,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9984087009271647</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9897644801563683</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9955482063139818</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9857018590733364</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>0.993937634506914</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9840652471822282</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>0.971000957209163</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9676114029367695</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9669042816006562</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9845977918485674</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9965051282752873</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9799652104346508</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9949495111906683</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>0.9783558099356341</v>
+        <v>6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9713755015420837</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9670369397438849</v>
+        <v>7</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9663995269872379</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1748,58 +1748,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9764810636057969</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>0.998143169547534</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9744629567262175</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9947209213295075</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>0.972534811985443</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9928418302893379</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9571038811942435</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9547009094454505</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9536029346163882</v>
+        <v>9</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9845977918485674</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9819019698108169</v>
+        <v>6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9959244901329805</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9800481372462404</v>
+        <v>6</v>
       </c>
       <c r="P23" t="n">
-        <v>0.9940992036644547</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9657913684319643</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>0.962357328820061</v>
+        <v>7</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9613741830309824</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1809,58 +1809,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9943030773760457</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9863837273421028</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9984351927347174</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9899245621493931</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9960860843708852</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9874894070681892</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9662206814822482</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>0.971708241551886</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9700730365255633</v>
+        <v>9</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9965051282752873</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9819019698108169</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9848155865163635</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>0.997707887614482</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9824155085686469</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9673779887208193</v>
+        <v>7</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9718958575720956</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9703365343226141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1870,58 +1870,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9712584816771612</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9933958479818202</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9767885710567643</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9981850243311124</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9740675459056267</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9954474699814673</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9510964802805766</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9582765584689588</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>0.956180782183604</v>
+        <v>9</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9799652104346508</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9959244901329805</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9848155865163635</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9821708205274342</v>
+        <v>6</v>
       </c>
       <c r="P25" t="n">
-        <v>0.9973244420233669</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9605423550932135</v>
+        <v>7</v>
       </c>
       <c r="R25" t="n">
-        <v>0.9666708442999072</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9646960235894809</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1931,58 +1931,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9927959247179284</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9845699320345151</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9961901758272789</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>0.987312728203165</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>0.99842537627029</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9898647186311031</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9630203237659071</v>
+        <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9675894733314134</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9717693635183999</v>
+        <v>7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9949495111906683</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9800481372462404</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>0.997707887614482</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9821708205274342</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.9847234144180307</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9641201422206068</v>
+        <v>7</v>
       </c>
       <c r="R26" t="n">
-        <v>0.9677250944192094</v>
+        <v>7</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9719698172028275</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1992,58 +1992,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9696781173143408</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9915895726400116</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9744162836948351</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>0.995521187229272</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9766479454764825</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9981719049153643</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>0.947710645284901</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9539049033554305</v>
+        <v>9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.958091717472409</v>
+        <v>7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9783558099356341</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9940992036644547</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9824155085686469</v>
+        <v>6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9973244420233669</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>0.9847234144180307</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9571239164247732</v>
+        <v>7</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9622721056643282</v>
+        <v>7</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9665681040518034</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2053,58 +2053,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9463357528521879</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9503167596553683</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9489594440449513</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9521492709495863</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9480893015928158</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9513573926122011</v>
+        <v>9</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9435263967485205</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9468416662388517</v>
+        <v>9</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9471467660694671</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9465044295754879</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9438932699495682</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9485384561567878</v>
+        <v>7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.9451543608827817</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9477165129014548</v>
+        <v>7</v>
       </c>
       <c r="P28" t="n">
-        <v>0.9443781960866626</v>
+        <v>7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9421601899534521</v>
+        <v>7</v>
       </c>
       <c r="R28" t="n">
-        <v>0.9445605273186393</v>
+        <v>7</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9449225703075435</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2114,58 +2114,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9335896816339571</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>0.952433118207174</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9377044461091684</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9557543121939176</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9367055030255348</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9548730394064633</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9328966341915014</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9380820030388844</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9382200591199312</v>
+        <v>10</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9412815486504774</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9541461776715995</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9447488871552951</v>
+        <v>9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.9567993083427367</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>0.9438211271535161</v>
+        <v>9</v>
       </c>
       <c r="P29" t="n">
-        <v>0.9559629884028661</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.94109985945569</v>
+        <v>8</v>
       </c>
       <c r="R29" t="n">
-        <v>0.9452692072344411</v>
+        <v>8</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9455160531329645</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2175,58 +2175,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9680563357217046</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>0.968937037340118</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9646894106228686</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9642611598254359</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9613728200345468</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9607965905884017</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n">
-        <v>0.997432010137959</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9928149661145473</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9901979182219701</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9713755015420837</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9657913684319643</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9673779887208193</v>
+        <v>7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9605423550932135</v>
+        <v>7</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9641201422206068</v>
+        <v>7</v>
       </c>
       <c r="P30" t="n">
-        <v>0.9571239164247732</v>
+        <v>7</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.9943855857678244</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9918553711284894</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2236,58 +2236,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9629643627968493</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9646573757540109</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9684573903529367</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>0.969616352128933</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9642253543969203</v>
+        <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>0.965161743865224</v>
+        <v>9</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9908513636236949</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9974885657781454</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9937181688791353</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9670369397438849</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>0.962357328820061</v>
+        <v>7</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9718958575720956</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9666708442999072</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9677250944192094</v>
+        <v>7</v>
       </c>
       <c r="P31" t="n">
-        <v>0.9622721056643282</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9943855857678244</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9963240426283489</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2297,58 +2297,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9623748319958916</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9637197575364753</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9669451531978366</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9676790859758202</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9685171605968855</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9695388800349789</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9883792641378252</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9938655029231919</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9974608268424521</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9663995269872379</v>
+        <v>7</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9613741830309824</v>
+        <v>7</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9703365343226141</v>
+        <v>7</v>
       </c>
       <c r="N32" t="n">
-        <v>0.9646960235894809</v>
+        <v>7</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9719698172028275</v>
+        <v>5</v>
       </c>
       <c r="P32" t="n">
-        <v>0.9665681040518034</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.9918553711284894</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>0.9963240426283489</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2358,58 +2358,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.7523204583346833</v>
+        <v>28</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7475141652200059</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
-        <v>0.757505422943786</v>
+        <v>28</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7524207307758185</v>
+        <v>26</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7557627760706493</v>
+        <v>28</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7506211410485281</v>
+        <v>26</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7651020586780917</v>
+        <v>25</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7715138048502491</v>
+        <v>25</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7705103420920955</v>
+        <v>25</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7541206732587525</v>
+        <v>28</v>
       </c>
       <c r="L33" t="n">
-        <v>0.7442607637422967</v>
+        <v>26</v>
       </c>
       <c r="M33" t="n">
-        <v>0.7588222836515682</v>
+        <v>28</v>
       </c>
       <c r="N33" t="n">
-        <v>0.7486752078802282</v>
+        <v>26</v>
       </c>
       <c r="O33" t="n">
-        <v>0.757123290240694</v>
+        <v>28</v>
       </c>
       <c r="P33" t="n">
-        <v>0.746902414977175</v>
+        <v>26</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7661175310312615</v>
+        <v>25</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7717564609234013</v>
+        <v>25</v>
       </c>
       <c r="S33" t="n">
-        <v>0.7708132327656583</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -2419,58 +2419,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9469611819005781</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9512637697890323</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9495627627284577</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>0.953068411380272</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9493764095396702</v>
+        <v>9</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9530218594965681</v>
+        <v>9</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9443091964223082</v>
+        <v>9</v>
       </c>
       <c r="I34" t="n">
-        <v>0.947594766512486</v>
+        <v>9</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9487709836322002</v>
+        <v>9</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9471288743227753</v>
+        <v>9</v>
       </c>
       <c r="L34" t="n">
-        <v>0.944832843027855</v>
+        <v>9</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9491404106948048</v>
+        <v>9</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9460657100226078</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9490023110453352</v>
+        <v>9</v>
       </c>
       <c r="P34" t="n">
-        <v>0.9460297576584714</v>
+        <v>9</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.9429405535742672</v>
+        <v>9</v>
       </c>
       <c r="R34" t="n">
-        <v>0.9453105075918311</v>
+        <v>9</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9465421397982731</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2480,58 +2480,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9341462591887135</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9533552800776462</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>0.938243707498482</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9566534570916386</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9379226937622376</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9565112797140435</v>
+        <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>0.933616039302324</v>
+        <v>10</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9387777367684214</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9397794000100429</v>
+        <v>10</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9418607740742139</v>
+        <v>11</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9550866786128139</v>
+        <v>7</v>
       </c>
       <c r="M35" t="n">
-        <v>0.9453102530329813</v>
+        <v>11</v>
       </c>
       <c r="N35" t="n">
-        <v>0.9577161517576158</v>
+        <v>7</v>
       </c>
       <c r="O35" t="n">
-        <v>0.9450605472599918</v>
+        <v>11</v>
       </c>
       <c r="P35" t="n">
-        <v>0.9576139456084254</v>
+        <v>7</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.9418469376820974</v>
+        <v>10</v>
       </c>
       <c r="R35" t="n">
-        <v>0.9459916411338563</v>
+        <v>10</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9471007397667363</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2652,58 +2652,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.990981297555674</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9961095915796011</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9871752480878724</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.993846329104382</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9846430977091106</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9746934545988682</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9716970447574707</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9694924570149891</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9938648192791021</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9826789058922977</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9908067731872935</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9814532296251129</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9889526252573849</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9781886318779246</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9660305217079127</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9662614396914873</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9643029475258517</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2713,58 +2713,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.990981297555674</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9913390370430584</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.996766668588524</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.988981311871149</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9940335028899767</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9762210445426139</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9722768950928796</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9703227756562048</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9916994048727386</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9947496790176561</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9888057900305266</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9929903839266455</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9861189901173345</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9902533340202879</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9695638181489054</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9707116570066145</v>
+        <v>6</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9684265215777619</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2774,58 +2774,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9961095915796011</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9913390370430584</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9933370042612433</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9976892246539194</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9908241430424467</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9738774339909537</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>0.975828023719453</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9734137449202135</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9943748032706961</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9855645249486239</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9960799134752374</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.988970830300373</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9939728146342676</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9854449331512187</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9668783337947453</v>
+        <v>8</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9723783409734326</v>
+        <v>7</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9706923385712785</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2835,58 +2835,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9871752480878724</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.996766668588524</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9933370042612433</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9916005381598444</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9973965013947642</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9733135512055874</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9743025845113958</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9727211481985086</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9897200625395991</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9933980287669727</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>0.991361162240643</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9960746140295629</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9889718716087388</v>
+        <v>7</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9932646247204298</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9661012614855946</v>
+        <v>7</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9730700040674862</v>
+        <v>6</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9710649808789413</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2896,58 +2896,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.993846329104382</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.988981311871149</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9976892246539194</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9916005381598444</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9933008729410154</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9740248262838779</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9758406678094226</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9768027429577339</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9943045025642854</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9859454252135348</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9956193427377613</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9887513154661151</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9969780478985958</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9885781698716687</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.967455921687066</v>
+        <v>8</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9720149015369862</v>
+        <v>8</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9739951656745222</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2957,58 +2957,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9846430977091106</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9940335028899767</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9908241430424467</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9973965013947642</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9933008729410154</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9739849968385357</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9741000999181468</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9767414287855324</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9897860676783719</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9940063756026057</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9911690433358986</v>
+        <v>7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9956944863647559</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9923101758025366</v>
+        <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>0.996624322929296</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9665379296480082</v>
+        <v>7</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9728944825366039</v>
+        <v>7</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9748818401071744</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3018,58 +3018,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.970706399518381</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9713180620528054</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9699910716637732</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9713627858363676</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9704975408589969</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9710978134935372</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9717478640380551</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>0.970965050596635</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9703401954490746</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9686736991090956</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9661633324213433</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9672452378734977</v>
+        <v>9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9672073542846737</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>0.967051481726409</v>
+        <v>9</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9658903538079535</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9618804215262007</v>
+        <v>8</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9652612047480709</v>
+        <v>8</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9638793495383609</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3079,58 +3079,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9682043794662062</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9736679633086835</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9703439544278214</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9743351108930631</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.971006261701404</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9742752907993267</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9737050375301102</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9732703245174892</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9725219621358893</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9709444541414902</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9715349165399416</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9703808962027671</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9726283901942943</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>0.969839462258218</v>
+        <v>10</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9713288233784388</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9663954313618435</v>
+        <v>8</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9701805709181311</v>
+        <v>8</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9688343603477627</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3140,58 +3140,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9746934545988682</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9762210445426139</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9738774339909537</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9733135512055874</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9740248262838779</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9739849968385357</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9950524675138079</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9944470541207771</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9817320408856347</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9783616749787191</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9781312915738526</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9758851812332677</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9757681964718933</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9743983857550543</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9944043920093009</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9935879078162134</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9915000646431824</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -3201,58 +3201,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9716970447574707</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9722768950928796</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.975828023719453</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9743025845113958</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9758406678094226</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9741000999181468</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9950524675138079</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9953415291308116</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9788696729124554</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9743735881316369</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9798890685286646</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9785005534432851</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9772125597426062</v>
+        <v>7</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9750694880163144</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9946822679385917</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9958232583189744</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9935924848377434</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -3262,58 +3262,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9694924570149891</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9703227756562048</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9734137449202135</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9727211481985086</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9768027429577339</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9767414287855324</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9944470541207771</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9953415291308116</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9781756831592988</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>0.974952846116283</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9792233294822106</v>
+        <v>7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9765378409469371</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9800160630625173</v>
+        <v>6</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9784762777393524</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9896115498505712</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9945487324369146</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9961728304682781</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -3323,58 +3323,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9938648192791021</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9916994048727386</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9943748032706961</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9897200625395991</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9943045025642854</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9897860676783719</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9817320408856347</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9788696729124554</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9781756831592988</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9926959541342492</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9969148987474651</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.990849882243221</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>0.994988644683994</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9889468161645678</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9767777425104132</v>
+        <v>6</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9778019387391074</v>
+        <v>7</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9767605807454245</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -3384,58 +3384,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9826789058922977</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9947496790176561</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9855645249486239</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9933980287669727</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9859454252135348</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9940063756026057</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9783616749787191</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9743735881316369</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>0.974952846116283</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9926959541342492</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9910661346247986</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9960497909977228</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9886529082296597</v>
+        <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9951825902698</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9740762333422474</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9762920810311293</v>
+        <v>6</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9749454107567324</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -3445,58 +3445,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9908067731872935</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9888057900305266</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9960799134752374</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0.991361162240643</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9956193427377613</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9911690433358986</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9781312915738526</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9798890685286646</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9792233294822106</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9969148987474651</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9910661346247986</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9932758770728983</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>0.997296767319884</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9910480222270101</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9735408326582465</v>
+        <v>7</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9799497712028439</v>
+        <v>6</v>
       </c>
       <c r="S15" t="n">
-        <v>0.978738720131675</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -3506,58 +3506,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9814532296251129</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9929903839266455</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.988970830300373</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9960746140295629</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9887513154661151</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9956944863647559</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9758851812332677</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9785005534432851</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9765378409469371</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>0.990849882243221</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9960497909977228</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9932758770728983</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9910442539022563</v>
+        <v>5</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9968965152379049</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9734046804148261</v>
+        <v>6</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9794331426623704</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9777928444691766</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -3567,58 +3567,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9889526252573849</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9861189901173345</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9939728146342676</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9889718716087388</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9969780478985958</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9923101758025366</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9757681964718933</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9772125597426062</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9800160630625173</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>0.994988644683994</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9886529082296597</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>0.997296767319884</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9910442539022563</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9926679712995325</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9711562184370947</v>
+        <v>7</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9771694081559298</v>
+        <v>7</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9799083846473421</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -3628,58 +3628,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9781886318779246</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9902533340202879</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9854449331512187</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9932646247204298</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9885781698716687</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>0.996624322929296</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9743983857550543</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9750694880163144</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9784762777393524</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9889468161645678</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9951825902698</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9910480222270101</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9968965152379049</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9926679712995325</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9709504431257352</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>0.9776979446606895</v>
+        <v>6</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9800259933028939</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -3689,58 +3689,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9653985441970786</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9692018094193319</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9662480109313089</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9692033025334478</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9669290230186677</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9690857198274777</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9737129043730267</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9738729025227144</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9739106970126477</v>
+        <v>7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9690821256037512</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9685836140882964</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9684010797184763</v>
+        <v>7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.970139792486221</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9686952540659171</v>
+        <v>7</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9702491118231797</v>
+        <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9688686988579287</v>
+        <v>7</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9729946582305758</v>
+        <v>7</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9714899793258385</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -3750,58 +3750,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9623967607840535</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9705796971041772</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9661232535648786</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9710814554896605</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9670651651245659</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9715565943193318</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9731424740723347</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>0.97301062679975</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>0.973208088434986</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9704160352344721</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>0.972528446480925</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>0.970363875980645</v>
+        <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9739479608614953</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9704304291705973</v>
+        <v>8</v>
       </c>
       <c r="P20" t="n">
-        <v>0.9740744331380619</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9699697697873306</v>
+        <v>7</v>
       </c>
       <c r="R20" t="n">
-        <v>0.975093960228024</v>
+        <v>7</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9742177966729598</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -3811,58 +3811,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9660305217079127</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9695638181489054</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9668783337947453</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9661012614855946</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.967455921687066</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9665379296480082</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9944043920093009</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9946822679385917</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9896115498505712</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9767777425104132</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9740762333422474</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9735408326582465</v>
+        <v>7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9734046804148261</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9711562184370947</v>
+        <v>7</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9709504431257352</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.9932399786623832</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9913589574125785</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -3872,58 +3872,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9662614396914873</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9707116570066145</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9723783409734326</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9730700040674862</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9720149015369862</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9728944825366039</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9935879078162134</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9958232583189744</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9945487324369146</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9778019387391074</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9762920810311293</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9799497712028439</v>
+        <v>6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9794331426623704</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9771694081559298</v>
+        <v>7</v>
       </c>
       <c r="P22" t="n">
-        <v>0.9776979446606895</v>
+        <v>6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9932399786623832</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9966831927122028</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -3933,58 +3933,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9643029475258517</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9684265215777619</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9706923385712785</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9710649808789413</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9739951656745222</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9748818401071744</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9915000646431824</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9935924848377434</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9961728304682781</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9767605807454245</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9749454107567324</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>0.978738720131675</v>
+        <v>7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9777928444691766</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9799083846473421</v>
+        <v>6</v>
       </c>
       <c r="P23" t="n">
-        <v>0.9800259933028939</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9913589574125785</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9966831927122028</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3994,58 +3994,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8311235011214266</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8225048644580978</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8353265510053808</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8278983659139471</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.844411493722111</v>
+        <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>0.836887620077997</v>
+        <v>14</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8384842885442538</v>
+        <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8425330496395238</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8453764168116471</v>
+        <v>14</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8538465639945959</v>
+        <v>17</v>
       </c>
       <c r="L24" t="n">
-        <v>0.845013811131044</v>
+        <v>13</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8560729318681922</v>
+        <v>17</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8451127777427707</v>
+        <v>14</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8579013352770545</v>
+        <v>17</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8485814328672725</v>
+        <v>14</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.8395975732225783</v>
+        <v>13</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8446485600118427</v>
+        <v>13</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8495110682589537</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -4055,58 +4055,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8180634536798435</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8121735504414804</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8236362554196728</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8169793664150019</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>0.831774506945926</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8263518831315457</v>
+        <v>14</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8324281357433035</v>
+        <v>14</v>
       </c>
       <c r="I25" t="n">
-        <v>0.837433661089738</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8380038939761403</v>
+        <v>14</v>
       </c>
       <c r="K25" t="n">
-        <v>0.84168919026764</v>
+        <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8340774663272779</v>
+        <v>14</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8439962464848194</v>
+        <v>16</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8349373282742744</v>
+        <v>14</v>
       </c>
       <c r="O25" t="n">
-        <v>0.845743487902054</v>
+        <v>17</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8374643097442257</v>
+        <v>14</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8363543920622313</v>
+        <v>13</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8386577750230676</v>
+        <v>13</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8437222331093414</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -4116,58 +4116,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8191815513145128</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8106416144097998</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8248873263991928</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8154861001445292</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8347231727460021</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8248276664571026</v>
+        <v>14</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8252253733090765</v>
+        <v>14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8360879490414637</v>
+        <v>14</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8307519431417544</v>
+        <v>14</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8410305396749376</v>
+        <v>17</v>
       </c>
       <c r="L26" t="n">
-        <v>0.828943957971826</v>
+        <v>14</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8427561223623405</v>
+        <v>17</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8357455987569501</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8448084879010591</v>
+        <v>17</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8345095568539466</v>
+        <v>14</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.83593768818545</v>
+        <v>13</v>
       </c>
       <c r="R26" t="n">
-        <v>0.8326265516864153</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8378675016984384</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8181457817009844</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8088686153409248</v>
+        <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8225388549732173</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8143637798144532</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8316652611754028</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8239885806884258</v>
+        <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8274543011605315</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8322339851122268</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8344715165027867</v>
+        <v>14</v>
       </c>
       <c r="K27" t="n">
-        <v>0.840279357634853</v>
+        <v>17</v>
       </c>
       <c r="L27" t="n">
-        <v>0.8312528798625535</v>
+        <v>14</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8438592641905551</v>
+        <v>17</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8324467582030238</v>
+        <v>14</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8445766379827283</v>
+        <v>16</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8343234674643732</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8293347449119171</v>
+        <v>13</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8343404598444586</v>
+        <v>13</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8383251092983141</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -4238,58 +4238,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8170698316286644</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8088493751012187</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8206712612166592</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8130231349252559</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8302967178896719</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8237255922719096</v>
+        <v>14</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8269944712996845</v>
+        <v>14</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8306751350178222</v>
+        <v>14</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8336841801378005</v>
+        <v>14</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8388849449008018</v>
+        <v>17</v>
       </c>
       <c r="L28" t="n">
-        <v>0.8307205899381943</v>
+        <v>14</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8410324939501223</v>
+        <v>17</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8309728961868438</v>
+        <v>14</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8438223607284684</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>0.834967014359529</v>
+        <v>13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.8283399820197452</v>
+        <v>13</v>
       </c>
       <c r="R28" t="n">
-        <v>0.832396607900133</v>
+        <v>13</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8371738302528449</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -4299,58 +4299,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8254549535883071</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>0.817877045507744</v>
+        <v>13</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8303176992182328</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8219016462069547</v>
+        <v>14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8393336018501906</v>
+        <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8322307243093497</v>
+        <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8347353337067285</v>
+        <v>14</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8385321871584404</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8407807583753871</v>
+        <v>14</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8481589840990923</v>
+        <v>17</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8388558596979817</v>
+        <v>14</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8507801184676901</v>
+        <v>17</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8397728584324839</v>
+        <v>14</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8524309665872795</v>
+        <v>17</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8424863915733218</v>
+        <v>14</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.836987971149875</v>
+        <v>13</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8410493275041306</v>
+        <v>13</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8468444369140291</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -4360,58 +4360,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8222455530129752</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8149705581094471</v>
+        <v>13</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8265656040739917</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8203393239504931</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8359796144617591</v>
+        <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8294480919727212</v>
+        <v>14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.832880188109173</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
-        <v>0.83646088604692</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8396415022020749</v>
+        <v>14</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8441715937632197</v>
+        <v>17</v>
       </c>
       <c r="L30" t="n">
-        <v>0.8369526975039782</v>
+        <v>14</v>
       </c>
       <c r="M30" t="n">
-        <v>0.8473992293898412</v>
+        <v>17</v>
       </c>
       <c r="N30" t="n">
-        <v>0.8374821501748502</v>
+        <v>14</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8487903667819751</v>
+        <v>17</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8404249748179352</v>
+        <v>14</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8328786446062277</v>
+        <v>13</v>
       </c>
       <c r="R30" t="n">
-        <v>0.8400308237845019</v>
+        <v>13</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8440140535695391</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -4421,58 +4421,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8052183366992943</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7937821496914402</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8082268315678441</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7954346814801587</v>
+        <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8172990241269925</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8030933014990146</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8105868131644756</v>
+        <v>14</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8259841476597917</v>
+        <v>13</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8122619040806276</v>
+        <v>14</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8237811419556583</v>
+        <v>17</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8077788896428052</v>
+        <v>15</v>
       </c>
       <c r="M31" t="n">
-        <v>0.8233803154864093</v>
+        <v>17</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8157886901370779</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8255352096388938</v>
+        <v>17</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8133337474346343</v>
+        <v>15</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.8294351125039151</v>
+        <v>13</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8153683882118251</v>
+        <v>14</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8199077184767809</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -4482,58 +4482,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8172678744499725</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8116325432560803</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8216873279393077</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>0.81600448092065</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8292098331773838</v>
+        <v>16</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8238549074420886</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8304212037465687</v>
+        <v>14</v>
       </c>
       <c r="I32" t="n">
-        <v>0.834385092522598</v>
+        <v>14</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8346345666474829</v>
+        <v>13</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8401419457198518</v>
+        <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>0.832076975784641</v>
+        <v>15</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8415462023629579</v>
+        <v>16</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8333930688608014</v>
+        <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>0.8414296937345959</v>
+        <v>16</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8345113449529676</v>
+        <v>15</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8323131375418833</v>
+        <v>14</v>
       </c>
       <c r="R32" t="n">
-        <v>0.8361670570462602</v>
+        <v>13</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8394181219364788</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -4543,58 +4543,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8132934624717504</v>
+        <v>17</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8047190253768625</v>
+        <v>13</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8189100688023018</v>
+        <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8101665111026315</v>
+        <v>14</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8293081900497576</v>
+        <v>17</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8209231886164193</v>
+        <v>14</v>
       </c>
       <c r="H33" t="n">
-        <v>0.827599213694677</v>
+        <v>14</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8327371976255236</v>
+        <v>14</v>
       </c>
       <c r="J33" t="n">
-        <v>0.834399635536958</v>
+        <v>14</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8356806955108487</v>
+        <v>16</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8269222339393705</v>
+        <v>14</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8387164415826693</v>
+        <v>17</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8273782184926151</v>
+        <v>14</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8426588402306905</v>
+        <v>17</v>
       </c>
       <c r="P33" t="n">
-        <v>0.831602862982009</v>
+        <v>14</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.8310815142939482</v>
+        <v>14</v>
       </c>
       <c r="R33" t="n">
-        <v>0.8364598212613097</v>
+        <v>14</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8421814245503819</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
